--- a/CleanData/Clean_Public Health Units GROUP.xlsx
+++ b/CleanData/Clean_Public Health Units GROUP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="86">
   <si>
     <t>PHU_Group</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>PHU_region</t>
+  </si>
+  <si>
+    <t>Create day</t>
+  </si>
+  <si>
+    <t>Update day</t>
   </si>
   <si>
     <t>Central</t>
@@ -272,6 +278,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -324,11 +333,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -623,13 +633,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -639,379 +649,589 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="2">
+        <v>44896</v>
+      </c>
+      <c r="E2" s="2">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="2">
+        <v>44896</v>
+      </c>
+      <c r="E3" s="2">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="2">
+        <v>44896</v>
+      </c>
+      <c r="E4" s="2">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="2">
+        <v>44896</v>
+      </c>
+      <c r="E5" s="2">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="2">
+        <v>44896</v>
+      </c>
+      <c r="E6" s="2">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="2">
+        <v>44896</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="2">
+        <v>44896</v>
+      </c>
+      <c r="E8" s="2">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="2">
+        <v>44896</v>
+      </c>
+      <c r="E9" s="2">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="2">
+        <v>44896</v>
+      </c>
+      <c r="E10" s="2">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="2">
+        <v>44896</v>
+      </c>
+      <c r="E11" s="2">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="2">
+        <v>44896</v>
+      </c>
+      <c r="E12" s="2">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="2">
+        <v>44896</v>
+      </c>
+      <c r="E13" s="2">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="2">
+        <v>44896</v>
+      </c>
+      <c r="E14" s="2">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="2">
+        <v>44896</v>
+      </c>
+      <c r="E15" s="2">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="2">
+        <v>44896</v>
+      </c>
+      <c r="E16" s="2">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="2">
+        <v>44896</v>
+      </c>
+      <c r="E17" s="2">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="2">
+        <v>44896</v>
+      </c>
+      <c r="E18" s="2">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="2">
+        <v>44896</v>
+      </c>
+      <c r="E19" s="2">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="2">
+        <v>44896</v>
+      </c>
+      <c r="E20" s="2">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="2">
+        <v>44896</v>
+      </c>
+      <c r="E21" s="2">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="2">
+        <v>44896</v>
+      </c>
+      <c r="E22" s="2">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="2">
+        <v>44896</v>
+      </c>
+      <c r="E23" s="2">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="2">
+        <v>44896</v>
+      </c>
+      <c r="E24" s="2">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="2">
+        <v>44896</v>
+      </c>
+      <c r="E25" s="2">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="2">
+        <v>44896</v>
+      </c>
+      <c r="E26" s="2">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="2">
+        <v>44896</v>
+      </c>
+      <c r="E27" s="2">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="2">
+        <v>44896</v>
+      </c>
+      <c r="E28" s="2">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="2">
+        <v>44896</v>
+      </c>
+      <c r="E29" s="2">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="2">
+        <v>44896</v>
+      </c>
+      <c r="E30" s="2">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="2">
+        <v>44896</v>
+      </c>
+      <c r="E31" s="2">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="2">
+        <v>44896</v>
+      </c>
+      <c r="E32" s="2">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" s="2">
+        <v>44896</v>
+      </c>
+      <c r="E33" s="2">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C34" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" s="2">
+        <v>44896</v>
+      </c>
+      <c r="E34" s="2">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B35" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" t="s">
-        <v>49</v>
-      </c>
       <c r="C35" t="s">
-        <v>83</v>
+        <v>85</v>
+      </c>
+      <c r="D35" s="2">
+        <v>44896</v>
+      </c>
+      <c r="E35" s="2">
+        <v>44896</v>
       </c>
     </row>
   </sheetData>

--- a/CleanData/Clean_Public Health Units GROUP.xlsx
+++ b/CleanData/Clean_Public Health Units GROUP.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\BI_DATH\CleanData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337E3072-315A-4BFD-A74D-45DDA968649C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -277,11 +283,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -345,6 +351,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -391,7 +405,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -423,9 +437,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -457,6 +489,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -632,14 +682,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="29.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -656,7 +712,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -673,7 +729,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -690,7 +746,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -707,7 +763,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -724,7 +780,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -741,7 +797,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -758,7 +814,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -775,7 +831,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -792,7 +848,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -809,7 +865,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -826,7 +882,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -843,7 +899,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -860,7 +916,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -877,7 +933,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -894,7 +950,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -911,7 +967,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -928,7 +984,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -945,7 +1001,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -962,7 +1018,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -979,7 +1035,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -996,7 +1052,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1013,7 +1069,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1030,7 +1086,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1047,7 +1103,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -1064,7 +1120,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -1081,7 +1137,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -1098,7 +1154,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -1115,7 +1171,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -1132,7 +1188,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -1149,7 +1205,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -1166,7 +1222,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -1183,7 +1239,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>16</v>
       </c>
@@ -1200,7 +1256,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>16</v>
       </c>
@@ -1217,7 +1273,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>17</v>
       </c>

--- a/CleanData/Clean_Public Health Units GROUP.xlsx
+++ b/CleanData/Clean_Public Health Units GROUP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\BI_DATH\CleanData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337E3072-315A-4BFD-A74D-45DDA968649C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFAD5E59-AF75-48E5-8C7D-4CA00C684C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4824" yWindow="3744" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="87">
   <si>
     <t>PHU_Group</t>
   </si>
@@ -82,18 +82,12 @@
     <t>Newmarket</t>
   </si>
   <si>
-    <t>Durham Region</t>
-  </si>
-  <si>
     <t>Port Hope</t>
   </si>
   <si>
     <t>Peterborough</t>
   </si>
   <si>
-    <t>Fergus</t>
-  </si>
-  <si>
     <t>Cornwall</t>
   </si>
   <si>
@@ -193,9 +187,6 @@
     <t>Peterborough Public Health</t>
   </si>
   <si>
-    <t>Wellington-Dufferin-Guelph Health Unit</t>
-  </si>
-  <si>
     <t>Eastern Ontario Health Unit</t>
   </si>
   <si>
@@ -278,6 +269,18 @@
   </si>
   <si>
     <t>Region of Waterloo, Public Health</t>
+  </si>
+  <si>
+    <t>Wellington-Dufferin-Guelph Public Health Unit</t>
+  </si>
+  <si>
+    <t>Whitby</t>
+  </si>
+  <si>
+    <t>Guelph</t>
+  </si>
+  <si>
+    <t>_Status</t>
   </si>
 </sst>
 </file>
@@ -287,7 +290,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,6 +302,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -339,12 +349,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -683,19 +694,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,8 +723,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -720,16 +735,19 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2">
-        <v>44896</v>
+        <v>44902</v>
       </c>
       <c r="E2" s="2">
-        <v>44896</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44902</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -737,560 +755,660 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2">
-        <v>44896</v>
+        <v>44902</v>
       </c>
       <c r="E3" s="2">
-        <v>44896</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44902</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2">
-        <v>44896</v>
+        <v>44902</v>
       </c>
       <c r="E4" s="2">
-        <v>44896</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44902</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D5" s="2">
-        <v>44896</v>
+        <v>44902</v>
       </c>
       <c r="E5" s="2">
-        <v>44896</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44902</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D6" s="2">
-        <v>44896</v>
+        <v>44902</v>
       </c>
       <c r="E6" s="2">
-        <v>44896</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44902</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
-        <v>23</v>
+      <c r="B7" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="D7" s="2">
-        <v>44896</v>
+        <v>44902</v>
       </c>
       <c r="E7" s="2">
-        <v>44896</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44902</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D8" s="2">
-        <v>44896</v>
+        <v>44902</v>
       </c>
       <c r="E8" s="2">
-        <v>44896</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44902</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D9" s="2">
-        <v>44896</v>
+        <v>44902</v>
       </c>
       <c r="E9" s="2">
-        <v>44896</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44902</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D10" s="2">
-        <v>44896</v>
+        <v>44902</v>
       </c>
       <c r="E10" s="2">
-        <v>44896</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44902</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D11" s="2">
-        <v>44896</v>
+        <v>44902</v>
       </c>
       <c r="E11" s="2">
-        <v>44896</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44902</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D12" s="2">
-        <v>44896</v>
+        <v>44902</v>
       </c>
       <c r="E12" s="2">
-        <v>44896</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44902</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D13" s="2">
-        <v>44896</v>
+        <v>44902</v>
       </c>
       <c r="E13" s="2">
-        <v>44896</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44902</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D14" s="2">
-        <v>44896</v>
+        <v>44902</v>
       </c>
       <c r="E14" s="2">
-        <v>44896</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44902</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D15" s="2">
-        <v>44896</v>
+        <v>44902</v>
       </c>
       <c r="E15" s="2">
-        <v>44896</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44902</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D16" s="2">
-        <v>44896</v>
+        <v>44902</v>
       </c>
       <c r="E16" s="2">
-        <v>44896</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44902</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D17" s="2">
-        <v>44896</v>
+        <v>44902</v>
       </c>
       <c r="E17" s="2">
-        <v>44896</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44902</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D18" s="2">
-        <v>44896</v>
+        <v>44902</v>
       </c>
       <c r="E18" s="2">
-        <v>44896</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44902</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D19" s="2">
-        <v>44896</v>
+        <v>44902</v>
       </c>
       <c r="E19" s="2">
-        <v>44896</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44902</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D20" s="2">
-        <v>44896</v>
+        <v>44902</v>
       </c>
       <c r="E20" s="2">
-        <v>44896</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44902</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D21" s="2">
-        <v>44896</v>
+        <v>44902</v>
       </c>
       <c r="E21" s="2">
-        <v>44896</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44902</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D22" s="2">
-        <v>44896</v>
+        <v>44902</v>
       </c>
       <c r="E22" s="2">
-        <v>44896</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44902</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D23" s="2">
-        <v>44896</v>
+        <v>44902</v>
       </c>
       <c r="E23" s="2">
-        <v>44896</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44902</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D24" s="2">
-        <v>44896</v>
+        <v>44902</v>
       </c>
       <c r="E24" s="2">
-        <v>44896</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44902</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D25" s="2">
-        <v>44896</v>
+        <v>44902</v>
       </c>
       <c r="E25" s="2">
-        <v>44896</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44902</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D26" s="2">
-        <v>44896</v>
+        <v>44902</v>
       </c>
       <c r="E26" s="2">
-        <v>44896</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44902</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D27" s="2">
-        <v>44896</v>
+        <v>44902</v>
       </c>
       <c r="E27" s="2">
-        <v>44896</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44902</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>13</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D28" s="2">
-        <v>44896</v>
+        <v>44902</v>
       </c>
       <c r="E28" s="2">
-        <v>44896</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44902</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D29" s="2">
-        <v>44896</v>
+        <v>44902</v>
       </c>
       <c r="E29" s="2">
-        <v>44896</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44902</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C30" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D30" s="2">
-        <v>44896</v>
+        <v>44902</v>
       </c>
       <c r="E30" s="2">
-        <v>44896</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44902</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>15</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C31" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D31" s="2">
-        <v>44896</v>
+        <v>44902</v>
       </c>
       <c r="E31" s="2">
-        <v>44896</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44902</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C32" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D32" s="2">
-        <v>44896</v>
+        <v>44902</v>
       </c>
       <c r="E32" s="2">
-        <v>44896</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44902</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C33" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D33" s="2">
-        <v>44896</v>
+        <v>44902</v>
       </c>
       <c r="E33" s="2">
-        <v>44896</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44902</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C34" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D34" s="2">
-        <v>44896</v>
+        <v>44902</v>
       </c>
       <c r="E34" s="2">
-        <v>44896</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44902</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C35" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D35" s="2">
-        <v>44896</v>
+        <v>44902</v>
       </c>
       <c r="E35" s="2">
-        <v>44896</v>
+        <v>44902</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/CleanData/Clean_Public Health Units GROUP.xlsx
+++ b/CleanData/Clean_Public Health Units GROUP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\BI_DATH\CleanData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFAD5E59-AF75-48E5-8C7D-4CA00C684C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C88D10-7DCA-487F-B205-8C6611C06F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4824" yWindow="3744" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -202,9 +202,6 @@
     <t>Chatham-Kent Health Unit</t>
   </si>
   <si>
-    <t>Lambton Health Unit</t>
-  </si>
-  <si>
     <t>Windsor-Essex County Health Unit</t>
   </si>
   <si>
@@ -256,12 +253,6 @@
     <t>Hastings and Prince Edward Counties Health Unit</t>
   </si>
   <si>
-    <t>Kingston, Frontenac and Lennox &amp; Addington Health Unit</t>
-  </si>
-  <si>
-    <t>Huron Perth Health Unit</t>
-  </si>
-  <si>
     <t>Middlesex-London Health Unit</t>
   </si>
   <si>
@@ -281,6 +272,15 @@
   </si>
   <si>
     <t>_Status</t>
+  </si>
+  <si>
+    <t>Huron Perth District Health Unit</t>
+  </si>
+  <si>
+    <t>Kingston, Frontenac and Lennox &amp; Addington Public Health Unit</t>
+  </si>
+  <si>
+    <t>Lambton Public Health Unit</t>
   </si>
 </sst>
 </file>
@@ -697,14 +697,15 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -724,7 +725,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -772,7 +773,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
         <v>52</v>
@@ -832,10 +833,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2">
         <v>44902</v>
@@ -955,7 +956,7 @@
         <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="D13" s="2">
         <v>44902</v>
@@ -975,7 +976,7 @@
         <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="2">
         <v>44902</v>
@@ -995,7 +996,7 @@
         <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D15" s="2">
         <v>44902</v>
@@ -1015,7 +1016,7 @@
         <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D16" s="2">
         <v>44902</v>
@@ -1035,7 +1036,7 @@
         <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D17" s="2">
         <v>44902</v>
@@ -1055,7 +1056,7 @@
         <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D18" s="2">
         <v>44902</v>
@@ -1075,7 +1076,7 @@
         <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D19" s="2">
         <v>44902</v>
@@ -1095,7 +1096,7 @@
         <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D20" s="2">
         <v>44902</v>
@@ -1115,7 +1116,7 @@
         <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D21" s="2">
         <v>44902</v>
@@ -1135,7 +1136,7 @@
         <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="2">
         <v>44902</v>
@@ -1155,7 +1156,7 @@
         <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="2">
         <v>44902</v>
@@ -1175,7 +1176,7 @@
         <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D24" s="2">
         <v>44902</v>
@@ -1195,7 +1196,7 @@
         <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D25" s="2">
         <v>44902</v>
@@ -1215,7 +1216,7 @@
         <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D26" s="2">
         <v>44902</v>
@@ -1235,7 +1236,7 @@
         <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D27" s="2">
         <v>44902</v>
@@ -1255,7 +1256,7 @@
         <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D28" s="2">
         <v>44902</v>
@@ -1275,7 +1276,7 @@
         <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D29" s="2">
         <v>44902</v>
@@ -1295,7 +1296,7 @@
         <v>44</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D30" s="2">
         <v>44902</v>
@@ -1315,7 +1316,7 @@
         <v>45</v>
       </c>
       <c r="C31" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D31" s="2">
         <v>44902</v>
@@ -1335,7 +1336,7 @@
         <v>46</v>
       </c>
       <c r="C32" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D32" s="2">
         <v>44902</v>
@@ -1355,7 +1356,7 @@
         <v>47</v>
       </c>
       <c r="C33" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D33" s="2">
         <v>44902</v>
@@ -1375,7 +1376,7 @@
         <v>48</v>
       </c>
       <c r="C34" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D34" s="2">
         <v>44902</v>
@@ -1395,7 +1396,7 @@
         <v>49</v>
       </c>
       <c r="C35" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D35" s="2">
         <v>44902</v>
